--- a/Data_Driven_Project/src/test/resources/excel/Testdata.xlsx
+++ b/Data_Driven_Project/src/test/resources/excel/Testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8675" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9120" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="addCustomerTest" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>firstname</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>A23</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
   <si>
     <t>S2eqe2q</t>
@@ -1318,7 +1321,7 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1329,7 +1332,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -1349,7 +1352,7 @@
   <sheetPr/>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1357,10 +1360,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
@@ -1368,10 +1371,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -1379,21 +1382,21 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -1410,8 +1413,8 @@
   <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="1"/>
@@ -1421,7 +1424,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -1429,7 +1432,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -1437,7 +1440,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -1445,7 +1448,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
